--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARTHIBAN P\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARTHIBAN P\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>DATE</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Change the feasibility study on this project</t>
+  </si>
+  <si>
+    <t>Edit the document</t>
+  </si>
+  <si>
+    <t>Feasibility and DFD</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +536,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>DATE</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Feasibility and DFD</t>
+  </si>
+  <si>
+    <t>design the home page</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +550,28 @@
         <v>22</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>design the home page</t>
+  </si>
+  <si>
+    <t>Full stack management</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -572,6 +575,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>DATE</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Full stack management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepar for first review </t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +586,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>DATE</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">Prepar for first review </t>
+  </si>
+  <si>
+    <t>Basic java concepts</t>
+  </si>
+  <si>
+    <t>Example programs</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +603,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>DATE</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Example programs</t>
+  </si>
+  <si>
+    <t>java concepts</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,6 +617,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>DATE</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>java concepts</t>
+  </si>
+  <si>
+    <t>design the front page</t>
+  </si>
+  <si>
+    <t>Design the front page</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -628,6 +634,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Design the front page</t>
+  </si>
+  <si>
+    <t>Design the navigaction</t>
+  </si>
+  <si>
+    <t>design the navigation</t>
+  </si>
+  <si>
+    <t>design for the test concept</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +654,25 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>design for the test concept</t>
+  </si>
+  <si>
+    <t>Create the question randomize for testing</t>
+  </si>
+  <si>
+    <t>design the test.</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +679,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -132,6 +132,33 @@
   </si>
   <si>
     <t>design the test.</t>
+  </si>
+  <si>
+    <t>create the question randomize on the level's</t>
+  </si>
+  <si>
+    <t>design the home page of the take the test</t>
+  </si>
+  <si>
+    <t>design the admin page</t>
+  </si>
+  <si>
+    <t>insert the database for sample data's</t>
+  </si>
+  <si>
+    <t>connection into the java</t>
+  </si>
+  <si>
+    <t>insert the database for sample data's in jsp</t>
+  </si>
+  <si>
+    <t>question to insert the html page to database</t>
+  </si>
+  <si>
+    <t>document correction</t>
+  </si>
+  <si>
+    <t>split the question</t>
   </si>
 </sst>
 </file>
@@ -175,10 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +718,78 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/main  project.xlsx
+++ b/main  project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>DATE</t>
   </si>
@@ -159,6 +159,33 @@
   </si>
   <si>
     <t>split the question</t>
+  </si>
+  <si>
+    <t>get the value from the database using java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepar for second review </t>
+  </si>
+  <si>
+    <t>edit the document for the correction.</t>
+  </si>
+  <si>
+    <t>insert the data from the ui page</t>
+  </si>
+  <si>
+    <t>split the question from the database</t>
+  </si>
+  <si>
+    <t>insert the student details from the databse</t>
+  </si>
+  <si>
+    <t>edit the ui design for the test level's</t>
+  </si>
+  <si>
+    <t>The css file and javascript file insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10-02-2020</t>
   </si>
 </sst>
 </file>
@@ -487,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +817,70 @@
         <v>44</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
